--- a/documentacaoNassauSt_DDESvr.xlsx
+++ b/documentacaoNassauSt_DDESvr.xlsx
@@ -77,9 +77,6 @@
     <t xml:space="preserve">   essa planilha ilustra como atualizar planilhas Excel com cotações do app NassauSt </t>
   </si>
   <si>
-    <t xml:space="preserve">   ver mais em https://www.facebook.com/</t>
-  </si>
-  <si>
     <t xml:space="preserve">   sintaxe:    =nassau|val!ativo[.tipo]      ex:  =nassau|val!goog    ou   =nassau|val!IBOV.max   ( case insensitive ) </t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">   (as duas linguas podem ser usadas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ver mais em https://github.com/omarreis/NassauSt</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
       <ddeItem name="btcusd.hora" advise="1">
         <values>
           <value>
-            <val>0.48749999999999999</val>
+            <val>0.5</val>
           </value>
         </values>
       </ddeItem>
@@ -352,28 +352,28 @@
       <ddeItem name="btcusd.preco" advise="1">
         <values>
           <value>
-            <val>37944.300000000003</val>
+            <val>37868.199999999997</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ibov.preco" advise="1">
         <values>
           <value>
-            <val>128752</val>
+            <val>128787</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="petr4" advise="1">
+        <values>
+          <value>
+            <val>27.58</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="petr4.hora" advise="1">
         <values>
           <value>
-            <val>0.4680555555555555</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="petr4.preco" advise="1">
-        <values>
-          <value>
-            <val>27.54</val>
+            <val>0.47916666666666669</val>
           </value>
         </values>
       </ddeItem>
@@ -393,10 +393,10 @@
             <val>AAPL</val>
           </value>
           <value>
-            <val>125.02</val>
-          </value>
-          <value>
-            <val>125.19</val>
+            <val>124.95</val>
+          </value>
+          <value>
+            <val>125.24</val>
           </value>
           <value>
             <val>124.11</val>
@@ -405,19 +405,19 @@
             <val>124.28</val>
           </value>
           <value>
-            <val>14427478</val>
-          </value>
-          <value>
-            <val>6.0000000000000001E-3</val>
-          </value>
-          <value>
-            <val>2086454358529</val>
-          </value>
-          <value>
-            <val>0.44097222222222227</val>
-          </value>
-          <value>
-            <val>28.1</val>
+            <val>18427621</val>
+          </value>
+          <value>
+            <val>5.4000000000000003E-3</val>
+          </value>
+          <value>
+            <val>2084952532941</val>
+          </value>
+          <value>
+            <val>0.45833333333333331</val>
+          </value>
+          <value>
+            <val>28</val>
           </value>
           <value>
             <val>4.46</val>
@@ -445,6 +445,67 @@
           </value>
           <value t="str">
             <val>Q</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="bbdc4" advise="1">
+        <values cols="19">
+          <value t="str">
+            <val>BBDC4</val>
+          </value>
+          <value>
+            <val>27.5</val>
+          </value>
+          <value>
+            <val>27.57</val>
+          </value>
+          <value>
+            <val>26.91</val>
+          </value>
+          <value>
+            <val>27</val>
+          </value>
+          <value>
+            <val>11823100</val>
+          </value>
+          <value>
+            <val>1.61E-2</val>
+          </value>
+          <value>
+            <val>133333758938</val>
+          </value>
+          <value>
+            <val>0.48888888888888887</val>
+          </value>
+          <value>
+            <val>14.3</val>
+          </value>
+          <value>
+            <val>1.93</val>
+          </value>
+          <value>
+            <val>17.45</val>
+          </value>
+          <value>
+            <val>27.57</val>
+          </value>
+          <value>
+            <val>27.06</val>
+          </value>
+          <value>
+            <val>4848500325</val>
+          </value>
+          <value t="str">
+            <val>Banco Bradesco SA Prefere</val>
+          </value>
+          <value t="str">
+            <val>A</val>
+          </value>
+          <value t="str">
+            <val>R</val>
+          </value>
+          <value t="str">
+            <val>B</val>
           </value>
         </values>
       </ddeItem>
@@ -454,10 +515,10 @@
             <val>BOVA11</val>
           </value>
           <value>
-            <val>123.89</val>
-          </value>
-          <value>
-            <val>123.89</val>
+            <val>123.83</val>
+          </value>
+          <value>
+            <val>123.95</val>
           </value>
           <value>
             <val>123.21</val>
@@ -466,16 +527,16 @@
             <val>123.51</val>
           </value>
           <value>
-            <val>728720</val>
-          </value>
-          <value>
-            <val>4.4999999999999997E-3</val>
-          </value>
-          <value>
-            <val>1092097724428</val>
-          </value>
-          <value>
-            <val>0.47222222222222227</val>
+            <val>940321</val>
+          </value>
+          <value>
+            <val>4.1000000000000003E-3</val>
+          </value>
+          <value>
+            <val>1091568820857</val>
+          </value>
+          <value>
+            <val>0.48888888888888887</val>
           </value>
           <value t="str">
             <val>-</val>
@@ -487,7 +548,7 @@
             <val>85.99</val>
           </value>
           <value>
-            <val>123.89</val>
+            <val>123.95</val>
           </value>
           <value>
             <val>123.33</val>
@@ -557,7 +618,7 @@
             <val>812473246</val>
           </value>
           <value t="str">
-            <val>BRF SA          ON</val>
+            <val>BRF SA</val>
           </value>
           <value t="str">
             <val>A</val>
@@ -576,7 +637,7 @@
             <val>BTCUSD</val>
           </value>
           <value>
-            <val>37944.300000000003</val>
+            <val>37868.199999999997</val>
           </value>
           <value t="nil">
             <val>1</val>
@@ -597,7 +658,7 @@
             <val>1</val>
           </value>
           <value>
-            <val>0.48749999999999999</val>
+            <val>0.5</val>
           </value>
           <value t="nil">
             <val>1</val>
@@ -637,7 +698,7 @@
             <val>GOOG</val>
           </value>
           <value>
-            <val>2429.9899999999998</val>
+            <val>2423.88</val>
           </value>
           <value>
             <val>2442</val>
@@ -649,16 +710,16 @@
             <val>2435.31</val>
           </value>
           <value>
-            <val>176435</val>
-          </value>
-          <value>
-            <val>1E-4</val>
-          </value>
-          <value>
-            <val>1610385748329</val>
-          </value>
-          <value>
-            <val>0.43541666666666662</val>
+            <val>235160</val>
+          </value>
+          <value>
+            <val>-2.3999999999999998E-3</val>
+          </value>
+          <value>
+            <val>1609197927550</val>
+          </value>
+          <value>
+            <val>0.45624999999999999</val>
           </value>
           <value>
             <val>30.7</val>
@@ -698,10 +759,10 @@
             <val>IBOV</val>
           </value>
           <value>
-            <val>128752</val>
-          </value>
-          <value>
-            <val>128784</val>
+            <val>128787</val>
+          </value>
+          <value>
+            <val>128894</val>
           </value>
           <value>
             <val>128167</val>
@@ -713,13 +774,13 @@
             <val>0</val>
           </value>
           <value>
-            <val>3.8E-3</val>
+            <val>4.1000000000000003E-3</val>
           </value>
           <value t="str">
             <val>-</val>
           </value>
           <value>
-            <val>0.46666666666666662</val>
+            <val>0.48749999999999999</val>
           </value>
           <value t="str">
             <val>-</val>
@@ -731,7 +792,7 @@
             <val>90147.92</val>
           </value>
           <value>
-            <val>128784</val>
+            <val>128894</val>
           </value>
           <value>
             <val>128267</val>
@@ -759,10 +820,10 @@
             <val>ITSA4</val>
           </value>
           <value>
-            <val>11.43</val>
-          </value>
-          <value>
-            <val>11.43</val>
+            <val>11.4</val>
+          </value>
+          <value>
+            <val>11.44</val>
           </value>
           <value>
             <val>11.24</val>
@@ -771,16 +832,16 @@
             <val>11.31</val>
           </value>
           <value>
-            <val>7827700</val>
-          </value>
-          <value>
-            <val>1.4200000000000001E-2</val>
-          </value>
-          <value>
-            <val>63104768939</val>
-          </value>
-          <value>
-            <val>0.47222222222222227</val>
+            <val>9085900</val>
+          </value>
+          <value>
+            <val>1.15E-2</val>
+          </value>
+          <value>
+            <val>62939139624</val>
+          </value>
+          <value>
+            <val>0.48958333333333331</val>
           </value>
           <value>
             <val>13.6</val>
@@ -820,28 +881,28 @@
             <val>IVVB11</val>
           </value>
           <value>
-            <val>234.08</val>
+            <val>234.1</val>
           </value>
           <value>
             <val>236.45</val>
           </value>
           <value>
-            <val>233.95</val>
+            <val>233.9</val>
           </value>
           <value>
             <val>235.97</val>
           </value>
           <value>
-            <val>49305</val>
-          </value>
-          <value>
-            <val>-1.8E-3</val>
+            <val>58975</val>
+          </value>
+          <value>
+            <val>-1.6999999999999999E-3</val>
           </value>
           <value t="str">
             <val>-</val>
           </value>
           <value>
-            <val>0.47500000000000003</val>
+            <val>0.48402777777777778</val>
           </value>
           <value t="str">
             <val>-</val>
@@ -946,7 +1007,7 @@
             <val>VALE3</val>
           </value>
           <value>
-            <val>113.83</val>
+            <val>114.14</val>
           </value>
           <value>
             <val>114.56</val>
@@ -958,16 +1019,16 @@
             <val>114.22</val>
           </value>
           <value>
-            <val>4520700</val>
-          </value>
-          <value>
-            <val>5.5999999999999999E-3</val>
-          </value>
-          <value>
-            <val>601531763069</val>
-          </value>
-          <value>
-            <val>0.47361111111111115</val>
+            <val>4878400</val>
+          </value>
+          <value>
+            <val>8.3000000000000001E-3</val>
+          </value>
+          <value>
+            <val>603169950248</val>
+          </value>
+          <value>
+            <val>0.47916666666666669</val>
           </value>
           <value>
             <val>10.4</val>
@@ -1007,7 +1068,7 @@
             <val>WEGE3</val>
           </value>
           <value>
-            <val>33.9</val>
+            <val>33.89</val>
           </value>
           <value>
             <val>34.32</val>
@@ -1019,19 +1080,19 @@
             <val>34.200000000000003</val>
           </value>
           <value>
-            <val>1626100</val>
-          </value>
-          <value>
-            <val>-8.5000000000000006E-3</val>
-          </value>
-          <value>
-            <val>142289080132</val>
-          </value>
-          <value>
-            <val>0.47222222222222227</val>
-          </value>
-          <value>
-            <val>83.3</val>
+            <val>2057900</val>
+          </value>
+          <value>
+            <val>-8.8000000000000005E-3</val>
+          </value>
+          <value>
+            <val>142247106952</val>
+          </value>
+          <value>
+            <val>0.48958333333333331</val>
+          </value>
+          <value>
+            <val>83</val>
           </value>
           <value>
             <val>0.41</val>
@@ -1354,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1400,7 +1461,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1409,7 +1470,7 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1426,12 +1487,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="22"/>
       <c r="D8" s="13" t="s">
@@ -1440,7 +1501,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>0</v>
@@ -1448,7 +1509,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,24 +1524,24 @@
       </c>
       <c r="B12" s="9">
         <f>[1]!btcusd.preco</f>
-        <v>37944.300000000003</v>
+        <v>37868.199999999997</v>
       </c>
       <c r="C12" s="11">
         <f>[1]!btcusd.hora</f>
-        <v>0.48749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
         <f>[1]!ibov.preco</f>
-        <v>128752</v>
+        <v>128787</v>
       </c>
       <c r="G12" s="9">
-        <f>[1]!petr4.preco</f>
-        <v>27.54</v>
+        <f>[1]!petr4</f>
+        <v>27.58</v>
       </c>
       <c r="H12" s="14">
         <f>[1]!petr4.hora</f>
-        <v>0.4680555555555555</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,12 +1555,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1620,7 +1681,7 @@
         <v>812473246</v>
       </c>
       <c r="P20" s="25" t="str">
-        <v>BRF SA          ON</v>
+        <v>BRF SA</v>
       </c>
       <c r="Q20" s="26" t="str">
         <v>A</v>
@@ -1638,10 +1699,10 @@
         <v>IBOV</v>
       </c>
       <c r="B21" s="10">
-        <v>128752</v>
+        <v>128787</v>
       </c>
       <c r="C21" s="10">
-        <v>128784</v>
+        <v>128894</v>
       </c>
       <c r="D21" s="10">
         <v>128167</v>
@@ -1653,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="20">
-        <v>3.8E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="H21" s="4" t="str">
         <v>-</v>
       </c>
       <c r="I21" s="8">
-        <v>0.46666666666666662</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="J21" s="7" t="str">
         <v>-</v>
@@ -1671,7 +1732,7 @@
         <v>90147.92</v>
       </c>
       <c r="M21" s="10">
-        <v>128784</v>
+        <v>128894</v>
       </c>
       <c r="N21" s="10">
         <v>128267</v>
@@ -1694,10 +1755,10 @@
         <v>ITSA4</v>
       </c>
       <c r="B22" s="9">
-        <v>11.43</v>
+        <v>11.4</v>
       </c>
       <c r="C22" s="9">
-        <v>11.43</v>
+        <v>11.44</v>
       </c>
       <c r="D22" s="9">
         <v>11.24</v>
@@ -1706,16 +1767,16 @@
         <v>11.31</v>
       </c>
       <c r="F22" s="4">
-        <v>7827700</v>
+        <v>9085900</v>
       </c>
       <c r="G22" s="20">
-        <v>1.4200000000000001E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="H22" s="4">
-        <v>63104768939</v>
+        <v>62939139624</v>
       </c>
       <c r="I22" s="8">
-        <v>0.47222222222222227</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J22" s="7">
         <v>13.6</v>
@@ -1750,7 +1811,7 @@
         <v>WEGE3</v>
       </c>
       <c r="B23" s="9">
-        <v>33.9</v>
+        <v>33.89</v>
       </c>
       <c r="C23" s="9">
         <v>34.32</v>
@@ -1762,19 +1823,19 @@
         <v>34.200000000000003</v>
       </c>
       <c r="F23" s="4">
-        <v>1626100</v>
+        <v>2057900</v>
       </c>
       <c r="G23" s="20">
-        <v>-8.5000000000000006E-3</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="H23" s="4">
-        <v>142289080132</v>
+        <v>142247106952</v>
       </c>
       <c r="I23" s="8">
-        <v>0.47222222222222227</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J23" s="7">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K23" s="9">
         <v>0.41</v>
@@ -1810,28 +1871,28 @@
         <v>IVVB11</v>
       </c>
       <c r="B24" s="9">
-        <v>234.08</v>
+        <v>234.1</v>
       </c>
       <c r="C24" s="9">
         <v>236.45</v>
       </c>
       <c r="D24" s="9">
-        <v>233.95</v>
+        <v>233.9</v>
       </c>
       <c r="E24" s="9">
         <v>235.97</v>
       </c>
       <c r="F24" s="4">
-        <v>49305</v>
+        <v>58975</v>
       </c>
       <c r="G24" s="20">
-        <v>-1.8E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="H24" s="4" t="str">
         <v>-</v>
       </c>
       <c r="I24" s="8">
-        <v>0.47500000000000003</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="J24" s="7" t="str">
         <v>-</v>
@@ -1912,7 +1973,7 @@
         <v>812473246</v>
       </c>
       <c r="P25" s="25" t="str">
-        <v>BRF SA          ON</v>
+        <v>BRF SA</v>
       </c>
       <c r="Q25" s="26" t="str">
         <v>A</v>
@@ -1930,10 +1991,10 @@
         <v>AAPL</v>
       </c>
       <c r="B26" s="9">
-        <v>125.02</v>
+        <v>124.95</v>
       </c>
       <c r="C26" s="9">
-        <v>125.19</v>
+        <v>125.24</v>
       </c>
       <c r="D26" s="9">
         <v>124.11</v>
@@ -1942,19 +2003,19 @@
         <v>124.28</v>
       </c>
       <c r="F26" s="4">
-        <v>14427478</v>
+        <v>18427621</v>
       </c>
       <c r="G26" s="20">
-        <v>6.0000000000000001E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H26" s="4">
-        <v>2086454358529</v>
+        <v>2084952532941</v>
       </c>
       <c r="I26" s="8">
-        <v>0.44097222222222227</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="J26" s="7">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="K26" s="9">
         <v>4.46</v>
@@ -1990,7 +2051,7 @@
         <v>GOOG</v>
       </c>
       <c r="B27" s="9">
-        <v>2429.9899999999998</v>
+        <v>2423.88</v>
       </c>
       <c r="C27" s="9">
         <v>2442</v>
@@ -2002,16 +2063,16 @@
         <v>2435.31</v>
       </c>
       <c r="F27" s="4">
-        <v>176435</v>
+        <v>235160</v>
       </c>
       <c r="G27" s="20">
-        <v>1E-4</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="H27" s="4">
-        <v>1610385748329</v>
+        <v>1609197927550</v>
       </c>
       <c r="I27" s="8">
-        <v>0.43541666666666662</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="J27" s="7">
         <v>30.7</v>
@@ -2050,7 +2111,7 @@
         <v>BTCUSD</v>
       </c>
       <c r="B28" s="10">
-        <v>37944.300000000003</v>
+        <v>37868.199999999997</v>
       </c>
       <c r="C28" s="10">
         <v>0</v>
@@ -2071,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.48749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -2110,10 +2171,10 @@
         <v>BOVA11</v>
       </c>
       <c r="B29" s="9">
-        <v>123.89</v>
+        <v>123.83</v>
       </c>
       <c r="C29" s="9">
-        <v>123.89</v>
+        <v>123.95</v>
       </c>
       <c r="D29" s="9">
         <v>123.21</v>
@@ -2122,16 +2183,16 @@
         <v>123.51</v>
       </c>
       <c r="F29" s="4">
-        <v>728720</v>
+        <v>940321</v>
       </c>
       <c r="G29" s="20">
-        <v>4.4999999999999997E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="H29" s="4">
-        <v>1092097724428</v>
+        <v>1091568820857</v>
       </c>
       <c r="I29" s="8">
-        <v>0.47222222222222227</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="J29" s="7" t="str">
         <v>-</v>
@@ -2143,7 +2204,7 @@
         <v>85.99</v>
       </c>
       <c r="M29" s="9">
-        <v>123.89</v>
+        <v>123.95</v>
       </c>
       <c r="N29" s="9">
         <v>123.33</v>
@@ -2170,7 +2231,7 @@
         <v>VALE3</v>
       </c>
       <c r="B30" s="9">
-        <v>113.83</v>
+        <v>114.14</v>
       </c>
       <c r="C30" s="9">
         <v>114.56</v>
@@ -2182,16 +2243,16 @@
         <v>114.22</v>
       </c>
       <c r="F30" s="4">
-        <v>4520700</v>
+        <v>4878400</v>
       </c>
       <c r="G30" s="20">
-        <v>5.5999999999999999E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="H30" s="4">
-        <v>601531763069</v>
+        <v>603169950248</v>
       </c>
       <c r="I30" s="8">
-        <v>0.47361111111111115</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="J30" s="7">
         <v>10.4</v>
@@ -2221,6 +2282,66 @@
         <v>R</v>
       </c>
       <c r="S30" s="26" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="str">
+        <f t="array" ref="A31:S31">[2]!bbdc4</f>
+        <v>BBDC4</v>
+      </c>
+      <c r="B31" s="9">
+        <v>27.5</v>
+      </c>
+      <c r="C31" s="9">
+        <v>27.57</v>
+      </c>
+      <c r="D31" s="9">
+        <v>26.91</v>
+      </c>
+      <c r="E31" s="9">
+        <v>27</v>
+      </c>
+      <c r="F31" s="4">
+        <v>11823100</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>133333758938</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="J31" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="L31" s="9">
+        <v>17.45</v>
+      </c>
+      <c r="M31" s="9">
+        <v>27.57</v>
+      </c>
+      <c r="N31" s="9">
+        <v>27.06</v>
+      </c>
+      <c r="O31" s="3">
+        <v>4848500325</v>
+      </c>
+      <c r="P31" s="25" t="str">
+        <v>Banco Bradesco SA Prefere</v>
+      </c>
+      <c r="Q31" s="26" t="str">
+        <v>A</v>
+      </c>
+      <c r="R31" s="26" t="str">
+        <v>R</v>
+      </c>
+      <c r="S31" s="26" t="str">
         <v>B</v>
       </c>
     </row>
